--- a/biology/Médecine/Pôle_hospitalier_d'activité/Pôle_hospitalier_d'activité.xlsx
+++ b/biology/Médecine/Pôle_hospitalier_d'activité/Pôle_hospitalier_d'activité.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>P%C3%B4le_hospitalier_d%27activit%C3%A9</t>
+          <t>Pôle_hospitalier_d'activité</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon le plan hôpital 2007, les services hospitaliers se regroupent en pôles d'activité.
 L’objectif est à la fois de faciliter le séjour ou le parcours du patient dans l’hôpital, en lui évitant de passer de service en service, de mutualiser les moyens mis en œuvre et d’associer les personnels soignants à la gestion des établissements publics de santé (EPS).
